--- a/linelist/LineLists_Map.xlsx
+++ b/linelist/LineLists_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesw/FDP/sfit/400/github/sfit-core-code/linelist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA9608-D3F4-FC49-AA44-DFDC9B9B6C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C0EFE-046F-054B-A87B-97F56BBC7B98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13440" yWindow="580" windowWidth="26860" windowHeight="28020" activeTab="1" xr2:uid="{25443D72-56D3-084B-8A33-DEFF1CD3507B}"/>
   </bookViews>
@@ -782,6 +782,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3183,8 +3183,8 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="12" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3228,28 +3228,28 @@
     </row>
     <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="13" t="s">
         <v>181</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
       <c r="N12" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="18" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5064,7 +5064,9 @@
       <c r="F77" s="3">
         <v>1</v>
       </c>
-      <c r="G77" s="16"/>
+      <c r="G77" s="16">
+        <v>39</v>
+      </c>
       <c r="H77" s="3" t="s">
         <v>129</v>
       </c>
@@ -5157,7 +5159,9 @@
       <c r="F82" s="3">
         <v>1</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="16">
+        <v>41</v>
+      </c>
       <c r="H82" s="3" t="s">
         <v>138</v>
       </c>

--- a/linelist/LineLists_Map.xlsx
+++ b/linelist/LineLists_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesw/FDP/sfit/400/github/sfit-core-code/linelist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C0EFE-046F-054B-A87B-97F56BBC7B98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3A3D8-BAF0-D341-BD6C-137E2F6CB8BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="580" windowWidth="26860" windowHeight="28020" activeTab="1" xr2:uid="{25443D72-56D3-084B-8A33-DEFF1CD3507B}"/>
+    <workbookView xWindow="8180" yWindow="440" windowWidth="26860" windowHeight="23560" activeTab="1" xr2:uid="{25443D72-56D3-084B-8A33-DEFF1CD3507B}"/>
   </bookViews>
   <sheets>
     <sheet name="HITRAN-Centric" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="206">
   <si>
     <t>! the linelist directory structure is the key to the gas names and the molecule id numbers</t>
   </si>
@@ -627,6 +627,24 @@
   </si>
   <si>
     <t>X+P</t>
+  </si>
+  <si>
+    <t>Quanta</t>
+  </si>
+  <si>
+    <t>Quanta Key</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>yes &amp; hitran format</t>
+  </si>
+  <si>
+    <t>yes, mixed formatting</t>
+  </si>
+  <si>
+    <t>yes not HITRAN format or partial data</t>
   </si>
 </sst>
 </file>
@@ -665,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -733,11 +751,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -755,9 +793,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,6 +828,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,45 +1196,45 @@
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
@@ -1196,7 +1243,7 @@
         <v>175</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1205,13 +1252,13 @@
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1223,7 +1270,7 @@
       <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1232,10 +1279,10 @@
       <c r="I11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1247,7 +1294,7 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1256,10 +1303,10 @@
       <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1271,7 +1318,7 @@
       <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1280,10 +1327,10 @@
       <c r="I13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1295,7 +1342,7 @@
       <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1304,10 +1351,10 @@
       <c r="I14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1319,7 +1366,7 @@
       <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>5</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1328,10 +1375,10 @@
       <c r="I15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1343,7 +1390,7 @@
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>6</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1352,10 +1399,10 @@
       <c r="I16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1367,7 +1414,7 @@
       <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1376,10 +1423,10 @@
       <c r="I17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1391,7 +1438,7 @@
       <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1400,10 +1447,10 @@
       <c r="I18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1415,7 +1462,7 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1424,10 +1471,10 @@
       <c r="I19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1439,7 +1486,7 @@
       <c r="F20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1448,10 +1495,10 @@
       <c r="I20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1463,7 +1510,7 @@
       <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1472,10 +1519,10 @@
       <c r="I21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1487,7 +1534,7 @@
       <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1496,10 +1543,10 @@
       <c r="I22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1511,7 +1558,7 @@
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -1520,10 +1567,10 @@
       <c r="I23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1535,7 +1582,7 @@
       <c r="F24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1544,10 +1591,10 @@
       <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1559,7 +1606,7 @@
       <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -1568,10 +1615,10 @@
       <c r="I25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1583,7 +1630,7 @@
       <c r="F26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -1592,10 +1639,10 @@
       <c r="I26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1607,7 +1654,7 @@
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>17</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -1616,10 +1663,10 @@
       <c r="I27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1631,7 +1678,7 @@
       <c r="F28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -1640,10 +1687,10 @@
       <c r="I28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1655,7 +1702,7 @@
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -1664,10 +1711,10 @@
       <c r="I29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1679,7 +1726,7 @@
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -1688,16 +1735,16 @@
       <c r="I30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1706,7 +1753,7 @@
       <c r="F31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -1715,12 +1762,12 @@
       <c r="I31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="14"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -1732,7 +1779,7 @@
       <c r="F32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>22</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -1741,10 +1788,10 @@
       <c r="I32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="16"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1756,7 +1803,7 @@
       <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>23</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1765,10 +1812,10 @@
       <c r="I33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1780,7 +1827,7 @@
       <c r="F34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -1789,12 +1836,12 @@
       <c r="I34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -1806,7 +1853,7 @@
       <c r="F35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -1815,12 +1862,12 @@
       <c r="I35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -1832,7 +1879,7 @@
       <c r="F36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>26</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -1841,13 +1888,13 @@
       <c r="I36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="16"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1859,7 +1906,7 @@
       <c r="F37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>27</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -1868,13 +1915,13 @@
       <c r="I37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J37" s="16"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -1883,7 +1930,7 @@
       <c r="F38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -1892,10 +1939,10 @@
       <c r="I38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="16"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -1907,7 +1954,7 @@
       <c r="F39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <v>29</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -1916,12 +1963,12 @@
       <c r="I39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -1930,16 +1977,16 @@
       <c r="E40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="16"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1951,7 +1998,7 @@
       <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>31</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -1960,10 +2007,10 @@
       <c r="I41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="16"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -1975,7 +2022,7 @@
       <c r="F42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>32</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -1984,13 +2031,13 @@
       <c r="I42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J42" s="16"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2002,7 +2049,7 @@
       <c r="F43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>33</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -2011,30 +2058,30 @@
       <c r="I43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="16"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <v>34</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>186</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2043,25 +2090,25 @@
       <c r="E45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <v>35</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="16"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <v>36</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -2070,28 +2117,28 @@
       <c r="I46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="16"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <v>37</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J47" s="16"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2103,7 +2150,7 @@
       <c r="F48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <v>38</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -2112,10 +2159,10 @@
       <c r="I48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="16"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2127,7 +2174,7 @@
       <c r="F49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>39</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -2136,10 +2183,10 @@
       <c r="I49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J49" s="16"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2151,7 +2198,7 @@
       <c r="F50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <v>40</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -2160,10 +2207,10 @@
       <c r="I50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="16"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -2175,7 +2222,7 @@
       <c r="F51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>41</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -2184,10 +2231,10 @@
       <c r="I51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="16"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2196,19 +2243,19 @@
       <c r="E52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <v>42</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="16"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>0</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2217,7 +2264,7 @@
       <c r="F53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <v>43</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -2226,13 +2273,13 @@
       <c r="I53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="16"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>0</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2241,7 +2288,7 @@
       <c r="F54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>44</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -2250,10 +2297,10 @@
       <c r="I54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="16"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2262,7 +2309,7 @@
       <c r="F55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="15">
         <v>45</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -2271,12 +2318,12 @@
       <c r="I55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2285,7 +2332,7 @@
       <c r="F56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <v>46</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -2294,10 +2341,10 @@
       <c r="I56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="16"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>0</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2306,7 +2353,7 @@
       <c r="F57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>47</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -2315,10 +2362,10 @@
       <c r="I57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J57" s="16"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>0</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2327,18 +2374,18 @@
       <c r="F58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="15">
         <v>48</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>43</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -2347,7 +2394,7 @@
       <c r="E59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <v>49</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2356,13 +2403,13 @@
       <c r="I59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J59" s="16"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2371,16 +2418,16 @@
       <c r="E60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>50</v>
       </c>
-      <c r="J60" s="16"/>
+      <c r="J60" s="15"/>
       <c r="K60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -2389,16 +2436,16 @@
       <c r="E61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <v>51</v>
       </c>
-      <c r="J61" s="16"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -2407,16 +2454,16 @@
       <c r="E62" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="15">
         <v>52</v>
       </c>
-      <c r="J62" s="16"/>
+      <c r="J62" s="15"/>
       <c r="L62" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2425,13 +2472,13 @@
       <c r="E63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="15">
         <v>53</v>
       </c>
-      <c r="J63" s="16"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -2440,13 +2487,13 @@
       <c r="E64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="15">
         <v>54</v>
       </c>
-      <c r="J64" s="16"/>
+      <c r="J64" s="15"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -2455,13 +2502,13 @@
       <c r="E65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="15">
         <v>55</v>
       </c>
-      <c r="J65" s="16"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -2470,13 +2517,13 @@
       <c r="E66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="15">
         <v>56</v>
       </c>
-      <c r="J66" s="16"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -2485,13 +2532,13 @@
       <c r="E67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="15">
         <v>57</v>
       </c>
-      <c r="J67" s="16"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -2500,13 +2547,13 @@
       <c r="E68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="15">
         <v>58</v>
       </c>
-      <c r="J68" s="16"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -2515,13 +2562,13 @@
       <c r="E69" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G69" s="16">
-        <v>59</v>
-      </c>
-      <c r="J69" s="16"/>
+      <c r="G69" s="15">
+        <v>59</v>
+      </c>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>121</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -2530,16 +2577,16 @@
       <c r="E70" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <v>60</v>
       </c>
-      <c r="J70" s="16"/>
+      <c r="J70" s="15"/>
       <c r="K70" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -2548,16 +2595,16 @@
       <c r="E71" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="15">
         <v>61</v>
       </c>
-      <c r="J71" s="16"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -2566,16 +2613,16 @@
       <c r="E72" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <v>62</v>
       </c>
-      <c r="J72" s="16"/>
+      <c r="J72" s="15"/>
       <c r="K72" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2584,13 +2631,13 @@
       <c r="E73" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="15">
         <v>63</v>
       </c>
-      <c r="J73" s="16"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -2599,13 +2646,13 @@
       <c r="E74" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <v>64</v>
       </c>
-      <c r="J74" s="16"/>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -2614,16 +2661,16 @@
       <c r="E75" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="15">
         <v>65</v>
       </c>
-      <c r="J75" s="16"/>
+      <c r="J75" s="15"/>
       <c r="K75" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2632,16 +2679,16 @@
       <c r="E76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <v>66</v>
       </c>
-      <c r="J76" s="16"/>
+      <c r="J76" s="15"/>
       <c r="K76" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>134</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -2650,16 +2697,16 @@
       <c r="E77" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="15">
         <v>67</v>
       </c>
-      <c r="J77" s="16"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -2668,16 +2715,16 @@
       <c r="E78" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="15">
         <v>68</v>
       </c>
-      <c r="J78" s="16"/>
+      <c r="J78" s="15"/>
       <c r="K78" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2686,13 +2733,13 @@
       <c r="E79" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="15">
         <v>69</v>
       </c>
-      <c r="J79" s="16"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -2701,13 +2748,13 @@
       <c r="E80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="15">
         <v>70</v>
       </c>
-      <c r="J80" s="16"/>
+      <c r="J80" s="15"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>140</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2716,16 +2763,16 @@
       <c r="E81" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="15">
         <v>71</v>
       </c>
-      <c r="J81" s="16"/>
+      <c r="J81" s="15"/>
       <c r="K81" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -2734,16 +2781,16 @@
       <c r="E82" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="15">
         <v>72</v>
       </c>
-      <c r="J82" s="16"/>
+      <c r="J82" s="15"/>
       <c r="K82" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -2752,16 +2799,16 @@
       <c r="E83" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="15">
         <v>73</v>
       </c>
-      <c r="J83" s="16"/>
+      <c r="J83" s="15"/>
       <c r="K83" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -2770,16 +2817,16 @@
       <c r="E84" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="15">
         <v>74</v>
       </c>
-      <c r="J84" s="16"/>
+      <c r="J84" s="15"/>
       <c r="K84" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>148</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -2788,16 +2835,16 @@
       <c r="E85" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="15">
         <v>75</v>
       </c>
-      <c r="J85" s="16"/>
+      <c r="J85" s="15"/>
       <c r="K85" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -2806,16 +2853,16 @@
       <c r="E86" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="15">
         <v>76</v>
       </c>
-      <c r="J86" s="16"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -2824,13 +2871,13 @@
       <c r="E87" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="15">
         <v>77</v>
       </c>
-      <c r="J87" s="16"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>153</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2839,13 +2886,13 @@
       <c r="E88" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="15">
         <v>78</v>
       </c>
-      <c r="J88" s="16"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>154</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -2854,13 +2901,13 @@
       <c r="E89" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="15">
         <v>79</v>
       </c>
-      <c r="J89" s="16"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -2869,13 +2916,13 @@
       <c r="E90" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="15">
         <v>80</v>
       </c>
-      <c r="J90" s="16"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -2884,13 +2931,13 @@
       <c r="E91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="15">
         <v>81</v>
       </c>
-      <c r="J91" s="16"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -2899,13 +2946,13 @@
       <c r="E92" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="15">
         <v>82</v>
       </c>
-      <c r="J92" s="16"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="15" t="s">
         <v>158</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -2914,13 +2961,13 @@
       <c r="E93" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="15">
         <v>83</v>
       </c>
-      <c r="J93" s="16"/>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="15" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -2929,13 +2976,13 @@
       <c r="E94" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="15">
         <v>84</v>
       </c>
-      <c r="J94" s="16"/>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -2944,13 +2991,13 @@
       <c r="E95" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="15">
         <v>85</v>
       </c>
-      <c r="J95" s="16"/>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>161</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -2959,13 +3006,13 @@
       <c r="E96" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="15">
         <v>86</v>
       </c>
-      <c r="J96" s="16"/>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -2974,13 +3021,13 @@
       <c r="E97" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="15">
         <v>87</v>
       </c>
-      <c r="J97" s="16"/>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>163</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -2989,13 +3036,13 @@
       <c r="E98" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="15">
         <v>88</v>
       </c>
-      <c r="J98" s="16"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>164</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -3004,13 +3051,13 @@
       <c r="E99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="15">
         <v>89</v>
       </c>
-      <c r="J99" s="16"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>165</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -3019,13 +3066,13 @@
       <c r="E100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="15">
         <v>90</v>
       </c>
-      <c r="J100" s="16"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>166</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -3034,13 +3081,13 @@
       <c r="E101" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="15">
         <v>91</v>
       </c>
-      <c r="J101" s="16"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>167</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -3049,13 +3096,13 @@
       <c r="E102" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="15">
         <v>92</v>
       </c>
-      <c r="J102" s="16"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>168</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -3064,13 +3111,13 @@
       <c r="E103" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="15">
         <v>93</v>
       </c>
-      <c r="J103" s="16"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -3079,13 +3126,13 @@
       <c r="E104" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="15">
         <v>94</v>
       </c>
-      <c r="J104" s="16"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -3094,13 +3141,13 @@
       <c r="E105" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="15">
         <v>95</v>
       </c>
-      <c r="J105" s="16"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -3109,13 +3156,13 @@
       <c r="E106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="15">
         <v>96</v>
       </c>
-      <c r="J106" s="16"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -3124,13 +3171,13 @@
       <c r="E107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107" s="15">
         <v>97</v>
       </c>
-      <c r="J107" s="16"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>173</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -3139,13 +3186,13 @@
       <c r="E108" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="15">
         <v>98</v>
       </c>
-      <c r="J108" s="16"/>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>99</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -3154,13 +3201,13 @@
       <c r="E109" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="15">
         <v>99</v>
       </c>
-      <c r="J109" s="16"/>
+      <c r="J109" s="15"/>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3180,81 +3227,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5F78AB-6B2D-3B4C-805F-8A9CA2094308}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="15" width="10.83203125" style="3"/>
+    <col min="3" max="16" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="3">
+        <v>4</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="13" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -3266,7 +3343,7 @@
       <c r="F12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>176</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -3278,38 +3355,35 @@
       <c r="J12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="P12" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="16">
+      <c r="C13" s="14"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="15">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3321,7 +3395,7 @@
       <c r="F14" s="3">
         <v>7</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3333,16 +3407,20 @@
       <c r="J14" s="3">
         <v>7</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="M14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="K14" s="15"/>
+      <c r="M14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="16">
+      <c r="O14" s="16"/>
+      <c r="P14" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="15">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3354,7 +3432,7 @@
       <c r="F15" s="3">
         <v>12</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3366,16 +3444,20 @@
       <c r="J15" s="3">
         <v>12</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="M15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="17">
+      <c r="K15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="16">
+      <c r="O15" s="16"/>
+      <c r="P15" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3387,7 +3469,7 @@
       <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3399,16 +3481,20 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="M16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="K16" s="15"/>
+      <c r="M16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="16">
+      <c r="O16" s="16"/>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="15">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3420,7 +3506,7 @@
       <c r="F17" s="3">
         <v>8</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3432,16 +3518,20 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="M17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="17">
+      <c r="K17" s="15"/>
+      <c r="M17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="16">
+      <c r="O17" s="16"/>
+      <c r="P17" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="15">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3453,7 +3543,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3465,16 +3555,20 @@
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="M18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="17">
+      <c r="K18" s="15"/>
+      <c r="M18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="16">
+      <c r="O18" s="16"/>
+      <c r="P18" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="15">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3486,7 +3580,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3498,16 +3592,20 @@
       <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="M19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="17">
+      <c r="K19" s="15"/>
+      <c r="M19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="16">
+      <c r="O19" s="16"/>
+      <c r="P19" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3519,7 +3617,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3531,16 +3629,20 @@
       <c r="J20" s="3">
         <v>3</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="M20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="17">
+      <c r="K20" s="15"/>
+      <c r="M20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C21" s="16">
+      <c r="O20" s="16"/>
+      <c r="P20" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="15">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3552,7 +3654,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3564,16 +3666,20 @@
       <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="M21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="17">
+      <c r="K21" s="15"/>
+      <c r="M21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C22" s="16">
+      <c r="O21" s="16"/>
+      <c r="P21" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="15">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3585,7 +3691,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3597,16 +3703,20 @@
       <c r="J22" s="3">
         <v>2</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="M22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="17">
+      <c r="K22" s="15"/>
+      <c r="M22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="16">
+      <c r="O22" s="16"/>
+      <c r="P22" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" s="15">
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3618,7 +3728,7 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>10</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3630,16 +3740,20 @@
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="M23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="16">
+      <c r="K23" s="15"/>
+      <c r="M23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C24" s="15">
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3651,7 +3765,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3663,16 +3777,20 @@
       <c r="J24" s="3">
         <v>2</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="M24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="17">
+      <c r="K24" s="15"/>
+      <c r="M24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="16">
+      <c r="O24" s="16"/>
+      <c r="P24" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25" s="15">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3684,7 +3802,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3696,16 +3814,20 @@
       <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="M25" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="16">
+      <c r="K25" s="15"/>
+      <c r="M25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="15">
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3717,7 +3839,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>13</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3729,16 +3851,20 @@
       <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="M26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="17">
+      <c r="K26" s="15"/>
+      <c r="M26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="16">
+      <c r="O26" s="16"/>
+      <c r="P26" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="15">
         <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -3750,7 +3876,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3762,16 +3888,20 @@
       <c r="J27" s="3">
         <v>2</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="M27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="16">
+      <c r="K27" s="15"/>
+      <c r="M27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="15">
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3783,7 +3913,7 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3795,16 +3925,20 @@
       <c r="J28" s="3">
         <v>4</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="M28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="17">
+      <c r="K28" s="15"/>
+      <c r="M28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="16">
+      <c r="O28" s="16"/>
+      <c r="P28" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" s="15">
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -3816,7 +3950,7 @@
       <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3828,16 +3962,20 @@
       <c r="J29" s="3">
         <v>4</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="M29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="17">
+      <c r="K29" s="15"/>
+      <c r="M29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="16">
+      <c r="O29" s="16"/>
+      <c r="P29" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="15">
         <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3849,7 +3987,7 @@
       <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>17</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3861,16 +3999,20 @@
       <c r="J30" s="3">
         <v>2</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="M30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="16">
+      <c r="K30" s="15"/>
+      <c r="M30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="16">
+        <v>1</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C31" s="15">
         <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3882,7 +4024,7 @@
       <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>18</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3894,50 +4036,58 @@
       <c r="J31" s="3">
         <v>2</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="M31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="17">
+      <c r="K31" s="15"/>
+      <c r="M31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="16">
+      <c r="O31" s="16"/>
+      <c r="P31" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="15">
         <v>19</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="16">
         <v>5</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>19</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="I32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="16">
         <v>5</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="17">
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C33" s="16">
+      <c r="O32" s="16"/>
+      <c r="P32" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="15">
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3949,7 +4099,7 @@
       <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>20</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -3961,19 +4111,23 @@
       <c r="J33" s="3">
         <v>3</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="M33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="17">
+      <c r="K33" s="15"/>
+      <c r="M33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="16"/>
+      <c r="P33" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>21</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -3985,7 +4139,7 @@
       <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>21</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -3997,17 +4151,21 @@
       <c r="J34" s="7">
         <v>2</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" s="17">
+      <c r="M34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C35" s="16">
+      <c r="O34" s="7"/>
+      <c r="P34" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="15">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4019,7 +4177,7 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>33</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -4031,19 +4189,23 @@
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C36" s="16">
+      <c r="M35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="16">
+        <v>1</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="15">
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -4055,7 +4217,7 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>25</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -4067,16 +4229,20 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="M36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="16">
+      <c r="K36" s="15"/>
+      <c r="M36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="15">
         <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -4085,17 +4251,19 @@
       <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="K37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C38" s="16">
+      <c r="G37" s="15"/>
+      <c r="K37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16">
+        <v>1</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="15">
         <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -4104,17 +4272,19 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="K38" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C39" s="16">
+      <c r="G38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16">
+        <v>1</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="15">
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -4126,18 +4296,20 @@
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C40" s="16">
+      <c r="M39" s="15"/>
+      <c r="N39" s="16">
+        <v>1</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C40" s="15">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -4149,7 +4321,7 @@
       <c r="F40" s="3">
         <v>2</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>35</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -4158,17 +4330,19 @@
       <c r="J40" s="3">
         <v>2</v>
       </c>
-      <c r="K40" s="16"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17">
+      <c r="M40" s="15"/>
+      <c r="N40" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C41" s="16">
+      <c r="O40" s="16"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="15">
         <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -4180,7 +4354,7 @@
       <c r="F41" s="3">
         <v>3</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>23</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4192,16 +4366,20 @@
       <c r="J41" s="3">
         <v>3</v>
       </c>
-      <c r="K41" s="16"/>
-      <c r="M41" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" s="17">
+      <c r="K41" s="15"/>
+      <c r="M41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="16">
+      <c r="O41" s="16"/>
+      <c r="P41" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C42" s="15">
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -4210,15 +4388,17 @@
       <c r="F42" s="3">
         <v>1</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="16">
+      <c r="G42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16">
+        <v>1</v>
+      </c>
+      <c r="O42" s="16"/>
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C43" s="15">
         <v>30</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -4230,7 +4410,7 @@
       <c r="F43" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>24</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -4242,16 +4422,20 @@
       <c r="J43" s="3">
         <v>2</v>
       </c>
-      <c r="K43" s="16"/>
-      <c r="M43" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="17">
+      <c r="K43" s="15"/>
+      <c r="M43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="16">
+      <c r="O43" s="16"/>
+      <c r="P43" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C44" s="15">
         <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -4263,7 +4447,7 @@
       <c r="F44" s="3">
         <v>1</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <v>42</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -4272,17 +4456,19 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="16">
+      <c r="M44" s="15"/>
+      <c r="N44" s="16">
+        <v>1</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="23"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C45" s="15">
         <v>32</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -4294,18 +4480,20 @@
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="G45" s="15"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="16">
+      <c r="M45" s="15"/>
+      <c r="N45" s="16">
+        <v>1</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="23"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C46" s="15">
         <v>33</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -4317,18 +4505,20 @@
       <c r="F46" s="3">
         <v>1</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="16">
+      <c r="M46" s="15"/>
+      <c r="N46" s="16">
+        <v>1</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C47" s="15">
         <v>34</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -4337,15 +4527,17 @@
       <c r="F47" s="3">
         <v>1</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C48" s="16">
+      <c r="G47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16">
+        <v>1</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="23"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C48" s="15">
         <v>35</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -4357,18 +4549,20 @@
       <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="K48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C49" s="16">
+      <c r="M48" s="15"/>
+      <c r="N48" s="16">
+        <v>1</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C49" s="15">
         <v>36</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -4380,7 +4574,7 @@
       <c r="F49" s="3">
         <v>2</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>29</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -4392,18 +4586,22 @@
       <c r="J49" s="3">
         <v>2</v>
       </c>
-      <c r="K49" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C50" s="16">
+      <c r="K49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="16">
+        <v>1</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C50" s="15">
         <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -4415,18 +4613,20 @@
       <c r="F50" s="3">
         <v>1</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="K50" s="16"/>
+      <c r="G50" s="15"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C51" s="16">
+      <c r="M50" s="15"/>
+      <c r="N50" s="16">
+        <v>1</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="23"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C51" s="15">
         <v>38</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4438,7 +4638,7 @@
       <c r="F51" s="3">
         <v>2</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>27</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -4450,19 +4650,23 @@
       <c r="J51" s="3">
         <v>2</v>
       </c>
-      <c r="K51" s="16"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M51" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C52" s="16">
+      <c r="M51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="16">
+        <v>1</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C52" s="15">
         <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -4474,7 +4678,7 @@
       <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <v>38</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4486,16 +4690,20 @@
       <c r="J52" s="3">
         <v>2</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="M52" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C53" s="16">
+      <c r="K52" s="15"/>
+      <c r="M52" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="16">
+        <v>1</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C53" s="15">
         <v>40</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -4507,7 +4715,7 @@
       <c r="F53" s="3">
         <v>3</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <v>26</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -4519,16 +4727,20 @@
       <c r="J53" s="3">
         <v>3</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="M53" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N53" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C54" s="16">
+      <c r="K53" s="15"/>
+      <c r="M53" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="16">
+        <v>1</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C54" s="15">
         <v>41</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -4540,7 +4752,7 @@
       <c r="F54" s="3">
         <v>2</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>22</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4552,16 +4764,20 @@
       <c r="J54" s="3">
         <v>2</v>
       </c>
-      <c r="K54" s="16"/>
-      <c r="M54" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C55" s="16">
+      <c r="K54" s="15"/>
+      <c r="M54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C55" s="15">
         <v>42</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -4573,18 +4789,20 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="16"/>
-      <c r="K55" s="16"/>
+      <c r="G55" s="15"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M55" s="16"/>
-      <c r="N55" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C56" s="16">
+      <c r="M55" s="15"/>
+      <c r="N55" s="16">
+        <v>1</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="23"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C56" s="15">
         <v>43</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -4596,7 +4814,7 @@
       <c r="F56" s="3">
         <v>3</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <v>49</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4608,17 +4826,19 @@
       <c r="J56" s="3">
         <v>2</v>
       </c>
-      <c r="K56" s="16"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M56" s="16"/>
-      <c r="N56" s="17">
+      <c r="M56" s="15"/>
+      <c r="N56" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C57" s="16">
+      <c r="O56" s="16"/>
+      <c r="P56" s="23"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C57" s="15">
         <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4630,7 +4850,7 @@
       <c r="F57" s="3">
         <v>2</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>40</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -4642,14 +4862,16 @@
       <c r="J57" s="3">
         <v>2</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="17">
+      <c r="K57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C58" s="16">
+      <c r="O57" s="16"/>
+      <c r="P57" s="23"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C58" s="15">
         <v>45</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -4658,17 +4880,19 @@
       <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="16"/>
-      <c r="K58" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M58" s="16"/>
-      <c r="N58" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C59" s="16">
+      <c r="G58" s="15"/>
+      <c r="K58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="16">
+        <v>1</v>
+      </c>
+      <c r="O58" s="16"/>
+      <c r="P58" s="23"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C59" s="15">
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -4680,7 +4904,7 @@
       <c r="F59" s="3">
         <v>1</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <v>32</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4692,19 +4916,23 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="16"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M59" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C60" s="16">
+      <c r="M59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" s="16">
+        <v>1</v>
+      </c>
+      <c r="O59" s="16"/>
+      <c r="P59" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C60" s="15">
         <v>47</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -4716,7 +4944,7 @@
       <c r="F60" s="3">
         <v>3</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>31</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4728,16 +4956,20 @@
       <c r="J60" s="3">
         <v>3</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="M60" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" s="17">
+      <c r="K60" s="15"/>
+      <c r="M60" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C61" s="16">
+      <c r="O60" s="16"/>
+      <c r="P60" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C61" s="15">
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -4746,18 +4978,20 @@
       <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="K61" s="15"/>
       <c r="L61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C62" s="16">
+      <c r="M61" s="15"/>
+      <c r="N61" s="16">
+        <v>1</v>
+      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="23"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C62" s="15">
         <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -4769,18 +5003,20 @@
       <c r="F62" s="3">
         <v>2</v>
       </c>
-      <c r="G62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="M62" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N62" s="17"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="M62" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="23"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="13">
         <v>50</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -4792,7 +5028,7 @@
       <c r="F63" s="7">
         <v>1</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <v>30</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -4802,17 +5038,19 @@
       <c r="J63" s="7">
         <v>1</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M63" s="14"/>
+      <c r="M63" s="13"/>
       <c r="N63" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C64" s="16">
+      <c r="O63" s="7"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C64" s="15">
         <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4824,16 +5062,18 @@
       <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="16"/>
-      <c r="K64" s="16"/>
+      <c r="G64" s="15"/>
+      <c r="K64" s="15"/>
       <c r="L64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M64" s="16"/>
-      <c r="N64" s="17"/>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C65" s="16">
+      <c r="M64" s="15"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="23"/>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C65" s="15">
         <v>52</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4845,15 +5085,17 @@
       <c r="F65" s="3">
         <v>2</v>
       </c>
-      <c r="G65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="M65" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N65" s="17"/>
-    </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C66" s="16">
+      <c r="G65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="M65" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="23"/>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="15">
         <v>53</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4862,13 +5104,15 @@
       <c r="F66" s="3">
         <v>0</v>
       </c>
-      <c r="G66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="17"/>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C67" s="16">
+      <c r="G66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="23"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C67" s="15">
         <v>54</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4877,13 +5121,15 @@
       <c r="F67" s="3">
         <v>0</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="17"/>
-    </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C68" s="16">
+      <c r="G67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="23"/>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C68" s="15">
         <v>55</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4892,13 +5138,15 @@
       <c r="F68" s="3">
         <v>0</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="17"/>
-    </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C69" s="16">
+      <c r="G68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="23"/>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C69" s="15">
         <v>56</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -4907,13 +5155,15 @@
       <c r="F69" s="3">
         <v>0</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="17"/>
-    </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C70" s="16">
+      <c r="G69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C70" s="15">
         <v>57</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -4922,13 +5172,15 @@
       <c r="F70" s="3">
         <v>0</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="17"/>
-    </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C71" s="16">
+      <c r="G70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="23"/>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C71" s="15">
         <v>58</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4937,15 +5189,17 @@
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="K71" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M71" s="16"/>
-      <c r="N71" s="17"/>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C72" s="16">
+      <c r="G71" s="15"/>
+      <c r="K71" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M71" s="15"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="23"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C72" s="15">
         <v>59</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -4954,15 +5208,17 @@
       <c r="F72" s="3">
         <v>1</v>
       </c>
-      <c r="G72" s="16"/>
-      <c r="K72" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M72" s="16"/>
-      <c r="N72" s="17"/>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C73" s="16">
+      <c r="G72" s="15"/>
+      <c r="K72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M72" s="15"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="23"/>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C73" s="15">
         <v>60</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -4974,16 +5230,18 @@
       <c r="F73" s="3">
         <v>1</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="K73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M73" s="16"/>
-      <c r="N73" s="17"/>
-    </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C74" s="16">
+      <c r="M73" s="15"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="23"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C74" s="15">
         <v>61</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -4995,21 +5253,22 @@
       <c r="F74" s="3">
         <v>1</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="K74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="K74" s="15"/>
       <c r="L74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M74" s="16"/>
-      <c r="N74" s="17">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3">
+      <c r="M74" s="15"/>
+      <c r="N74" s="16">
+        <v>1</v>
+      </c>
+      <c r="O74" s="16">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C75" s="16">
+      <c r="P74" s="23"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C75" s="15">
         <v>62</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -5021,21 +5280,22 @@
       <c r="F75" s="3">
         <v>1</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="K75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="K75" s="15"/>
       <c r="L75" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M75" s="16"/>
-      <c r="N75" s="17">
-        <v>1</v>
-      </c>
-      <c r="O75" s="3">
+      <c r="M75" s="15"/>
+      <c r="N75" s="16">
+        <v>1</v>
+      </c>
+      <c r="O75" s="16">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C76" s="16">
+      <c r="P75" s="23"/>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C76" s="15">
         <v>63</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -5044,15 +5304,17 @@
       <c r="F76" s="3">
         <v>1</v>
       </c>
-      <c r="G76" s="16"/>
-      <c r="K76" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M76" s="16"/>
-      <c r="N76" s="17"/>
-    </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C77" s="16">
+      <c r="G76" s="15"/>
+      <c r="K76" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="23"/>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C77" s="15">
         <v>64</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -5064,7 +5326,7 @@
       <c r="F77" s="3">
         <v>1</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="15">
         <v>39</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -5076,12 +5338,14 @@
       <c r="J77" s="3">
         <v>1</v>
       </c>
-      <c r="K77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="17"/>
-    </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C78" s="16">
+      <c r="K77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="23"/>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C78" s="15">
         <v>65</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -5090,13 +5354,15 @@
       <c r="F78" s="3">
         <v>1</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="17"/>
-    </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C79" s="16">
+      <c r="G78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="23"/>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C79" s="15">
         <v>66</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -5105,13 +5371,15 @@
       <c r="F79" s="3">
         <v>1</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="17"/>
-    </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C80" s="16">
+      <c r="G79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="23"/>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C80" s="15">
         <v>67</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5120,16 +5388,18 @@
       <c r="F80" s="3">
         <v>1</v>
       </c>
-      <c r="G80" s="16"/>
-      <c r="K80" s="16"/>
+      <c r="G80" s="15"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M80" s="16"/>
-      <c r="N80" s="17"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C81" s="16">
+      <c r="M80" s="15"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="23"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C81" s="15">
         <v>68</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -5138,16 +5408,18 @@
       <c r="F81" s="3">
         <v>1</v>
       </c>
-      <c r="G81" s="16"/>
-      <c r="K81" s="16"/>
+      <c r="G81" s="15"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M81" s="16"/>
-      <c r="N81" s="17"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C82" s="16">
+      <c r="M81" s="15"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="23"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C82" s="15">
         <v>69</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -5159,7 +5431,7 @@
       <c r="F82" s="3">
         <v>1</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="15">
         <v>41</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5171,15 +5443,17 @@
       <c r="J82" s="3">
         <v>1</v>
       </c>
-      <c r="K82" s="16"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M82" s="16"/>
-      <c r="N82" s="17"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C83" s="16">
+      <c r="M82" s="15"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="23"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C83" s="15">
         <v>70</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5188,16 +5462,18 @@
       <c r="F83" s="3">
         <v>1</v>
       </c>
-      <c r="G83" s="16"/>
-      <c r="K83" s="16"/>
+      <c r="G83" s="15"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M83" s="16"/>
-      <c r="N83" s="17"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C84" s="16">
+      <c r="M83" s="15"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="23"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C84" s="15">
         <v>71</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -5206,16 +5482,18 @@
       <c r="F84" s="3">
         <v>1</v>
       </c>
-      <c r="G84" s="16"/>
-      <c r="K84" s="16"/>
+      <c r="G84" s="15"/>
+      <c r="K84" s="15"/>
       <c r="L84" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M84" s="16"/>
-      <c r="N84" s="17"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C85" s="16">
+      <c r="M84" s="15"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="23"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C85" s="15">
         <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5224,16 +5502,18 @@
       <c r="F85" s="3">
         <v>1</v>
       </c>
-      <c r="G85" s="16"/>
-      <c r="K85" s="16"/>
+      <c r="G85" s="15"/>
+      <c r="K85" s="15"/>
       <c r="L85" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M85" s="16"/>
-      <c r="N85" s="17"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C86" s="16">
+      <c r="M85" s="15"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="23"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C86" s="15">
         <v>73</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -5242,16 +5522,18 @@
       <c r="F86" s="3">
         <v>1</v>
       </c>
-      <c r="G86" s="16"/>
-      <c r="K86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="K86" s="15"/>
       <c r="L86" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M86" s="16"/>
-      <c r="N86" s="17"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C87" s="16">
+      <c r="M86" s="15"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="23"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C87" s="15">
         <v>74</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5260,16 +5542,18 @@
       <c r="F87" s="3">
         <v>1</v>
       </c>
-      <c r="G87" s="16"/>
-      <c r="K87" s="16"/>
+      <c r="G87" s="15"/>
+      <c r="K87" s="15"/>
       <c r="L87" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M87" s="16"/>
-      <c r="N87" s="17"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C88" s="16">
+      <c r="M87" s="15"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="23"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C88" s="15">
         <v>75</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -5278,16 +5562,18 @@
       <c r="F88" s="3">
         <v>1</v>
       </c>
-      <c r="G88" s="16"/>
-      <c r="K88" s="16"/>
+      <c r="G88" s="15"/>
+      <c r="K88" s="15"/>
       <c r="L88" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M88" s="16"/>
-      <c r="N88" s="17"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C89" s="16">
+      <c r="M88" s="15"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="23"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C89" s="15">
         <v>76</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5296,16 +5582,18 @@
       <c r="F89" s="3">
         <v>1</v>
       </c>
-      <c r="G89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="G89" s="15"/>
+      <c r="K89" s="15"/>
       <c r="L89" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M89" s="16"/>
-      <c r="N89" s="17"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C90" s="16">
+      <c r="M89" s="15"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="23"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C90" s="15">
         <v>77</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -5314,13 +5602,15 @@
       <c r="F90" s="3">
         <v>0</v>
       </c>
-      <c r="G90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="17"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C91" s="16">
+      <c r="G90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="23"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C91" s="15">
         <v>78</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5329,13 +5619,15 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="17"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C92" s="16">
+      <c r="G91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="23"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C92" s="15">
         <v>79</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -5344,13 +5636,15 @@
       <c r="F92" s="3">
         <v>0</v>
       </c>
-      <c r="G92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="17"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C93" s="16">
+      <c r="G92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="23"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C93" s="15">
         <v>80</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5359,13 +5653,15 @@
       <c r="F93" s="3">
         <v>0</v>
       </c>
-      <c r="G93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C94" s="16">
+      <c r="G93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="23"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C94" s="15">
         <v>81</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -5374,13 +5670,15 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="17"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C95" s="16">
+      <c r="G94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="23"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C95" s="15">
         <v>82</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5389,13 +5687,15 @@
       <c r="F95" s="3">
         <v>0</v>
       </c>
-      <c r="G95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="17"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C96" s="16">
+      <c r="G95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="23"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C96" s="15">
         <v>83</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -5404,13 +5704,15 @@
       <c r="F96" s="3">
         <v>0</v>
       </c>
-      <c r="G96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="17"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C97" s="16">
+      <c r="G96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="23"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C97" s="15">
         <v>84</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5419,13 +5721,15 @@
       <c r="F97" s="3">
         <v>0</v>
       </c>
-      <c r="G97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="17"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C98" s="16">
+      <c r="G97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="23"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C98" s="15">
         <v>85</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5434,13 +5738,15 @@
       <c r="F98" s="3">
         <v>0</v>
       </c>
-      <c r="G98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="17"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C99" s="16">
+      <c r="G98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="23"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C99" s="15">
         <v>86</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5449,13 +5755,15 @@
       <c r="F99" s="3">
         <v>0</v>
       </c>
-      <c r="G99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="17"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C100" s="16">
+      <c r="G99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="23"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C100" s="15">
         <v>87</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5464,13 +5772,15 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="17"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C101" s="16">
+      <c r="G100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="23"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C101" s="15">
         <v>88</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5479,13 +5789,15 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="17"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C102" s="16">
+      <c r="G101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="23"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C102" s="15">
         <v>89</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5494,13 +5806,15 @@
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="17"/>
-    </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C103" s="16">
+      <c r="G102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="23"/>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C103" s="15">
         <v>90</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5509,13 +5823,15 @@
       <c r="F103" s="3">
         <v>0</v>
       </c>
-      <c r="G103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="17"/>
-    </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C104" s="16">
+      <c r="G103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="23"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C104" s="15">
         <v>91</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5524,13 +5840,15 @@
       <c r="F104" s="3">
         <v>0</v>
       </c>
-      <c r="G104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="17"/>
-    </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C105" s="16">
+      <c r="G104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="23"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C105" s="15">
         <v>92</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5539,13 +5857,15 @@
       <c r="F105" s="3">
         <v>0</v>
       </c>
-      <c r="G105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="17"/>
-    </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C106" s="16">
+      <c r="G105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="23"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C106" s="15">
         <v>93</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5554,13 +5874,15 @@
       <c r="F106" s="3">
         <v>0</v>
       </c>
-      <c r="G106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="17"/>
-    </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C107" s="16">
+      <c r="G106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="23"/>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C107" s="15">
         <v>94</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5569,13 +5891,15 @@
       <c r="F107" s="3">
         <v>0</v>
       </c>
-      <c r="G107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="17"/>
-    </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C108" s="16">
+      <c r="G107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="23"/>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C108" s="15">
         <v>95</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -5584,13 +5908,15 @@
       <c r="F108" s="3">
         <v>0</v>
       </c>
-      <c r="G108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="17"/>
-    </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C109" s="16">
+      <c r="G108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="23"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C109" s="15">
         <v>96</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5599,13 +5925,15 @@
       <c r="F109" s="3">
         <v>0</v>
       </c>
-      <c r="G109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="17"/>
-    </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C110" s="16">
+      <c r="G109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="23"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C110" s="15">
         <v>97</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -5614,13 +5942,15 @@
       <c r="F110" s="3">
         <v>0</v>
       </c>
-      <c r="G110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="17"/>
-    </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C111" s="16">
+      <c r="G110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="23"/>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C111" s="15">
         <v>98</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5629,13 +5959,15 @@
       <c r="F111" s="3">
         <v>0</v>
       </c>
-      <c r="G111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="17"/>
-    </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C112" s="16">
+      <c r="G111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="23"/>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C112" s="15">
         <v>99</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -5644,19 +5976,21 @@
       <c r="F112" s="3">
         <v>0</v>
       </c>
-      <c r="G112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="17"/>
+      <c r="G112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="23"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="16"/>
+      <c r="C113" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5667,13 +6001,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
